--- a/Unity/Assets/Config/Excel/StartConfig/Release_148/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_148/StartSceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_148\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F46E3D-AB1B-4E47-9F44-B4094598478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA205BE-0994-48A4-B7F8-0D963E5C69B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>所属进程</t>
   </si>
@@ -138,16 +138,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
     <t>Dynamic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Match</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -571,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -802,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -819,11 +834,173 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
